--- a/input.xlsx
+++ b/input.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
   <si>
     <t>Symbol</t>
   </si>
@@ -25,6 +25,9 @@
     <t>IPO_Date</t>
   </si>
   <si>
+    <t>IPO_Timezone</t>
+  </si>
+  <si>
     <t>Open_1</t>
   </si>
   <si>
@@ -43,88 +46,34 @@
     <t>AAPL</t>
   </si>
   <si>
-    <t>Apple Inc.</t>
-  </si>
-  <si>
-    <t>1980-12-12</t>
+    <t/>
   </si>
   <si>
     <t>MSFT</t>
   </si>
   <si>
-    <t>Microsoft Corporation</t>
-  </si>
-  <si>
-    <t>1986-03-13</t>
-  </si>
-  <si>
     <t>GOOG</t>
   </si>
   <si>
-    <t>Alphabet Inc. Class C Capital</t>
-  </si>
-  <si>
-    <t>2004-08-19</t>
-  </si>
-  <si>
     <t>GOOGL</t>
   </si>
   <si>
-    <t>Alphabet Inc. Class A</t>
-  </si>
-  <si>
     <t>AMZN</t>
   </si>
   <si>
-    <t>Amazon.com, Inc.</t>
-  </si>
-  <si>
-    <t>1997-05-15</t>
-  </si>
-  <si>
     <t>INTC</t>
   </si>
   <si>
-    <t>Intel Corporation</t>
-  </si>
-  <si>
-    <t>1980-03-17</t>
-  </si>
-  <si>
     <t>TSLA</t>
   </si>
   <si>
-    <t>Tesla, Inc.</t>
-  </si>
-  <si>
-    <t>2010-06-29</t>
-  </si>
-  <si>
     <t>V</t>
   </si>
   <si>
-    <t>Visa Inc.</t>
-  </si>
-  <si>
-    <t>2008-03-19</t>
-  </si>
-  <si>
     <t>NVDA</t>
   </si>
   <si>
-    <t>NVIDIA Corporation</t>
-  </si>
-  <si>
-    <t>1999-01-22</t>
-  </si>
-  <si>
     <t>WMT</t>
-  </si>
-  <si>
-    <t>Walmart Inc.</t>
-  </si>
-  <si>
-    <t>1972-08-25</t>
   </si>
 </sst>
 </file>
@@ -142,7 +91,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -174,13 +123,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -493,18 +451,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="31.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="3" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="31.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +472,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -529,173 +487,195 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
